--- a/botCode/workWithExcelFile/excelDatabase/TEACHERS/ХАМИДОВАОР.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/TEACHERS/ХАМИДОВАОР.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsen\Desktop\Новая папка (5)\TEACHERS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="ХАМИДОВАОР" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,11 +225,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,9 +265,6 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,6 +278,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +569,8 @@
   <sheetPr codeName="Лист34"/>
   <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,13 +769,13 @@
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14">
         <v>405</v>
       </c>
     </row>
@@ -767,15 +783,9 @@
       <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>405</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -799,15 +809,15 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>3</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -846,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,14 +864,14 @@
         <v>9</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -969,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -979,19 +989,19 @@
         <v>3</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="13"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1003,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -1013,19 +1023,19 @@
         <v>3</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1033,13 +1043,13 @@
       <c r="A56" s="1">
         <v>8</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1047,9 +1057,15 @@
       <c r="A57" s="1">
         <v>9</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="13"/>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>405</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1077,19 +1093,19 @@
         <v>3</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1097,13 +1113,13 @@
       <c r="A63" s="1">
         <v>4</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1111,13 +1127,13 @@
       <c r="A64" s="1">
         <v>5</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1125,13 +1141,13 @@
       <c r="A65" s="1">
         <v>6</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>405</v>
       </c>
     </row>
@@ -1139,13 +1155,13 @@
       <c r="A66" s="1">
         <v>7</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>405</v>
       </c>
     </row>
